--- a/test/xlsx/product_fruit.xlsx
+++ b/test/xlsx/product_fruit.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -37,528 +37,534 @@
     <t>大青芒果约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t4792/330/1055785671/186217/5748f1a0/58ec51b1N48c3e659.jpg</t>
+  </si>
+  <si>
+    <t>应季水果</t>
+  </si>
+  <si>
     <t>砂糖橘  约250g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1597/349/1093942958/90486/47024758/55b9e07aNeea3717d.jpg</t>
+  </si>
+  <si>
     <t>黄皮 哈密瓜  约2.8-3.2kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t2020/241/622303476/63417/d426d0fe/561dfc76N01971a53.jpg</t>
+  </si>
+  <si>
     <t>本地 小番茄  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t2896/106/1390407552/120797/b4c22f70/573d5342N39e0bd08.jpg</t>
+  </si>
+  <si>
     <t>[畅销]砂糖桔-沙糖桔约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/46654/13/14250/169001/5db0086dEc41e2d9d/9686eea108d1c0d2.png</t>
+  </si>
+  <si>
     <t>[畅销]香蕉约500g/份(约2到3根)</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/61962/20/10721/241348/5d832ecdE69b832cf/17afa0e3bbe8cdea.jpg</t>
+  </si>
+  <si>
     <t>新鲜苹果约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/58660/36/15982/250140/5dce3abdE9620eedb/43da5e79a46ef725.png</t>
+  </si>
+  <si>
     <t>红富士苹果  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/25680/27/6448/306413/5c5bf022E5d696e10/1b09142f77b6654c.jpg</t>
+  </si>
+  <si>
     <t>1个 黄柠檬 （以个数为准） 约100g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/32066/36/1648/53129/5c5a4b23Eedb3d4b3/32f1d5a6dfff46eb.jpg</t>
+  </si>
+  <si>
     <t>小台芒  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1642/315/1058071883/74332/2b7bf29e/55b98beeNe190fa8d.jpg</t>
+  </si>
+  <si>
     <t>柚子  约0.75-1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1573/45/1082551302/99072/30b1b0b3/55b9ced1N64b79667.jpg</t>
+  </si>
+  <si>
     <t>香蕉  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3997/306/2164361020/97773/51d501f4/58a3b30cNcdbe388d.jpg</t>
+  </si>
+  <si>
     <t>桔子 约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/32213/40/1680/65932/5c5a5a1bE71304e8f/d0bce7732fe9d382.jpg</t>
+  </si>
+  <si>
     <t>芒果  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3280/120/6108138523/131860/6ba12343/58a3b2e3N66b9d311.jpg</t>
+  </si>
+  <si>
     <t>丑八怪橘子 丑八怪桔子 约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/32956/40/1638/112874/5c5a573dE535f26b9/51a6d30fe9a9c568.jpg</t>
+  </si>
+  <si>
     <t>冰糖橙 约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/39472/33/8977/116877/5d034832E671a9170/61c4a2dd9d1b89d7.jpg</t>
+  </si>
+  <si>
     <t>甜橙  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t2425/186/830444219/105486/f43ecf92/562dc7a6N235aabb7.jpg</t>
+  </si>
+  <si>
     <t>无核蜜桔  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/26703/29/6576/99353/5c5a565bE4cbaecbe/70cb01e199fa1bf1.jpg</t>
+  </si>
+  <si>
     <t>沙糖桔  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/14370/11/6584/146924/5c5a549dE733d6de2/52f592710f388e05.jpg</t>
+  </si>
+  <si>
     <t>橙子  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/34762/11/8503/58739/5ccc3812Eaa4c538c/0effc9be56493a08.jpg</t>
+  </si>
+  <si>
     <t>精选 蜜柑  约1~1.1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3109/71/6276421535/271049/622cbadd/58a3b2a8N84e0bd88.jpg</t>
+  </si>
+  <si>
     <t>冰糖橙 约1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/58320/21/2377/116877/5d034856Ea9059fc6/c52195c75dec73cc.jpg</t>
+  </si>
+  <si>
     <t>金桔  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/29842/28/6650/33221/5c5a5a7cE20e22e18/118b05efc4b9098e.jpg</t>
+  </si>
+  <si>
     <t>金桔  约300g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/19860/15/6554/33158/5c5a5a3dE24794222/29a443d5994bfebc.jpg</t>
+  </si>
+  <si>
     <t>蜜桔约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3865/44/2122550994/320878/fca25ca8/58a3b2deN1d216660.jpg</t>
+  </si>
+  <si>
     <t>进口甜橙约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t16504/363/1988228871/227186/ba5ea49/5a8e1c68Nf5cecfe0.jpg</t>
+  </si>
+  <si>
     <t>赣南脐橙约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t2503/350/810315572/290653/f95cf2a0/562f2f34N36cc849c.jpg</t>
+  </si>
+  <si>
     <t>金桔约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3895/65/2153732188/351455/d072b05e/58a3b2a4Ne554d8de.jpg</t>
+  </si>
+  <si>
     <t>丑柑约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t4024/134/2147315804/141328/9b2f042a/58a3b2bfN51f7a9a3.jpg</t>
+  </si>
+  <si>
     <t>砂糖桔约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3844/76/3885747869/294664/b028b03c/58a3b2a2N49e06772.jpg</t>
+  </si>
+  <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/47371/10/15827/320878/5dce1324E6ef2e971/41bdb7084c4407b1.jpg</t>
+  </si>
+  <si>
     <t>橙子约600g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/67947/21/13562/128686/5daffde2Ee2ebf4da/1443fd2625ee1572.png</t>
+  </si>
+  <si>
     <t>青橘子约1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/61540/39/10730/104439/5d832915Eafb63723/bcbc5c04e62f8945.jpg</t>
+  </si>
+  <si>
     <t>青橘子约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/71871/39/10762/104439/5d832915E0d008ed6/19b244119c29afea.jpg</t>
+  </si>
+  <si>
     <t>青橘子约750g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/66019/12/10915/104439/5d832915Ec334206a/c2a9372284468032.jpg</t>
+  </si>
+  <si>
     <t>[畅销]砂糖桔-沙糖桔约1500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/97133/20/3992/169001/5de46fbdEf5a78491/b2e223c0ab39d52e.png</t>
+  </si>
+  <si>
     <t>甜橙约2kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/81288/23/13656/100447/5dafff60E611497d4/9eaf8b0f228a4309.jpg</t>
+  </si>
+  <si>
     <t>红富士苹果 约1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/71179/27/13514/306413/5dac1d18E0197c4bf/b1a698ca347f9b26.jpg</t>
+  </si>
+  <si>
     <t>皇冠梨  约650g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t4009/223/2160128530/215268/a048ee97/58a3b303N94bb716a.jpg</t>
+  </si>
+  <si>
     <t>海南香蕉 约500g /份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1747/33/273056284/50653/bb47037a/55cd974bN636b1998.jpg</t>
+  </si>
+  <si>
     <t>2根 香蕉  约300g/份</t>
   </si>
   <si>
     <t>香蕉  约1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/49126/31/13885/97773/5dac19e1Ed34ba52a/e6926a142aba552e.jpg</t>
+  </si>
+  <si>
     <t>雪梨 约500g /份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t2011/261/2480801782/63459/21576569/570bbb45Nc97b0499.jpg</t>
+  </si>
+  <si>
     <t>精品进口蛇果  约250g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t925/311/326994438/116833/9ade2eed/5521f721Nb6b52aa9.jpg</t>
+  </si>
+  <si>
     <t>雪花梨  约1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/84046/32/3114/204617/5d14ccb2E5dd09396/8b7b2c00a3596026.jpg</t>
+  </si>
+  <si>
     <t>雪花梨  约800g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/83623/1/3084/204617/5d14cc90Ee2bae89e/540486971e7c9000.jpg</t>
+  </si>
+  <si>
     <t>精选 进口佳农蕉  约750~800g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1426/170/1040400599/76187/603279fb/55b87259N911ef56b.jpg</t>
+  </si>
+  <si>
     <t>香梨  约1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/39340/31/9201/166473/5d05e05fEfd5565d8/89a88e2f61e2812b.jpg</t>
+  </si>
+  <si>
     <t>水晶梨  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/29488/18/9867/368859/5c8239afE6ba4f9db/07c08ec9563e2c14.jpg</t>
+  </si>
+  <si>
     <t>黄金梨  约1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3304/39/6258806262/192779/389d5eda/58a3b32cNfffebcfe.jpg</t>
+  </si>
+  <si>
     <t>皇冠梨 约1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/92369/24/384/215268/5dac1443E00d0c02d/18e7aa0a0cc15591.jpg</t>
+  </si>
+  <si>
     <t>香蕉 进口 约500g /份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3103/292/6272232908/241348/9aee56b/58a3b30dNecbbdacc.jpg</t>
+  </si>
+  <si>
     <t>丰水梨 泰山玉梨 约500g /个</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t4093/74/2138422664/240618/844b161/58a3b343Nf9414b44.jpg</t>
+  </si>
+  <si>
     <t>富士苹果 催的 约500g /份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3136/89/6336636933/88760/34f6c36a/58a3b29eN6bee4224.jpg</t>
+  </si>
+  <si>
     <t>皇冠梨 约500g /份</t>
   </si>
   <si>
     <t>香梨 约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3052/184/6302142553/237287/3a4c42c8/58a3b2f8Ndb99f849.jpg</t>
+  </si>
+  <si>
     <t>黄花梨 约350g /个</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1756/6/1238021677/199038/5592b39b/55e3efefNb7282ae6.jpg</t>
+  </si>
+  <si>
     <t>进口香蕉约1.0kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1675/75/846025208/165733/d5e75869/55b87346Nc10d469f.jpg</t>
+  </si>
+  <si>
     <t>红蛇果约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3289/1/6333828559/89124/5aa1f86e/58a3b32cN33bd0993.jpg</t>
+  </si>
+  <si>
     <t>国产香蕉约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1570/357/1091937726/269970/158abf8d/55b9e43aNea375a75.jpg</t>
+  </si>
+  <si>
     <t>香蕉  约1000g/份</t>
   </si>
   <si>
     <t>米蕉约1.0kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1630/135/1075868515/117970/1cda55b1/55b9c8a8N25a3b873.jpg</t>
+  </si>
+  <si>
     <t>糖心苹果  约1000g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t2482/237/364062419/386810/4e98e68a/5604e8d5Nc71e4133.jpg</t>
+  </si>
+  <si>
     <t>红富士苹果  约1000g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1852/49/1219908409/109938/dfea77be/564b078dN2063b1d9.jpg</t>
+  </si>
+  <si>
     <t>冰糖心苹果  约1000g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3055/254/6385551262/67057/c0a1b51e/58a3b321Nf9958e9d.jpg</t>
+  </si>
+  <si>
     <t>精品红提约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/50936/34/12957/134607/5d9c4016E4cd621d5/61df34ee55bae98a.png</t>
+  </si>
+  <si>
     <t>精品红提约1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/74480/35/12321/134607/5d9c4016E079bd132/4061e320bb6b0dd2.png</t>
+  </si>
+  <si>
     <t>新疆红提约750g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/76624/38/13563/90551/5daffd29E74723bd1/2cf3c79d30dd53fc.jpg</t>
+  </si>
+  <si>
     <t>巨峰葡萄约850g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/83219/10/15898/135988/5dd6a063E476aab1a/d206bb5eb51e361d.png</t>
+  </si>
+  <si>
     <t>无籽红提约1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/99925/22/557/276447/5daffd60E210def85/faac1dfe969e238b.png</t>
+  </si>
+  <si>
     <t>无籽红提约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/84246/16/13484/276447/5daffd60E7dd2b8ec/da71f92843139cb6.png</t>
+  </si>
+  <si>
     <t>新鲜甜葡萄约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/62574/22/13981/135988/5daffd5eE387071ae/b06822630ddd3a9f.png</t>
+  </si>
+  <si>
     <t>1个 毛桃  约200g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t5593/51/3266139785/60010/3c4421fc/593926edN67118212.jpg</t>
+  </si>
+  <si>
     <t>水蜜桃  约1kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3913/226/2171219525/140586/9c0c3aba/58a3b2f2Na840d8c5.jpg</t>
+  </si>
+  <si>
     <t>水蜜桃  约500g/份</t>
   </si>
   <si>
     <t>麒麟瓜  约2kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1591/100/1069033022/68403/141c2da8/55b99250Nbb44d40c.jpg</t>
+  </si>
+  <si>
     <t>晓蜜密瓜 约2kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t11347/65/2762080699/666499/becfe0d3/5cd77edcNf5070835.png</t>
+  </si>
+  <si>
     <t>（鲜切） 哈密瓜  约300g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/44346/17/2513/29989/5ccade9bEe0f65592/00bd3935499b6e53.jpg</t>
+  </si>
+  <si>
     <t>（鲜切） 哈密瓜  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/31433/23/15228/30055/5ccaded2E6a40e286/52c7e656fffe775a.jpg</t>
+  </si>
+  <si>
     <t>西瓜（大了会切开）约1.5-2kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/81924/7/4723/190268/5d2ee29aE6ca10c15/3b20a6340ea8f0fc.jpg</t>
+  </si>
+  <si>
     <t>1块 西瓜  约500g/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/69490/32/4769/190268/5d2e6febE5860e121/c16a6d4f30deb09a.jpg</t>
+  </si>
+  <si>
     <t>京欣西瓜  约3.5kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/43354/19/6605/174363/5d034939E1835bfb3/57dd99ceeb3cc5a6.jpg</t>
+  </si>
+  <si>
     <t>青花密瓜 约2.5kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1/59302/7/393/59643/5cd77f8bEd8f75d21/225a44d72c3b8fd1.jpg</t>
+  </si>
+  <si>
     <t>蜜瓜约1.0kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t1942/289/1832273732/204566/406646ff/5684efaeN12fa8ae1.jpg</t>
+  </si>
+  <si>
     <t>哈密瓜约2.0kg/份</t>
   </si>
   <si>
+    <t>https://img30.360buyimg.com/n6//jfs/t3190/187/6342936408/393147/97fe4657/58a3b2e0N4a5cae75.jpg</t>
+  </si>
+  <si>
     <t>麒麟瓜约1.5kg/份</t>
   </si>
   <si>
     <t>进口红心火龙果  约650g/份</t>
   </si>
   <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t4792/330/1055785671/186217/5748f1a0/58ec51b1N48c3e659.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1597/349/1093942958/90486/47024758/55b9e07aNeea3717d.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t2020/241/622303476/63417/d426d0fe/561dfc76N01971a53.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t2896/106/1390407552/120797/b4c22f70/573d5342N39e0bd08.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/46654/13/14250/169001/5db0086dEc41e2d9d/9686eea108d1c0d2.png</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/61962/20/10721/241348/5d832ecdE69b832cf/17afa0e3bbe8cdea.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/58660/36/15982/250140/5dce3abdE9620eedb/43da5e79a46ef725.png</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/25680/27/6448/306413/5c5bf022E5d696e10/1b09142f77b6654c.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/32066/36/1648/53129/5c5a4b23Eedb3d4b3/32f1d5a6dfff46eb.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1642/315/1058071883/74332/2b7bf29e/55b98beeNe190fa8d.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1573/45/1082551302/99072/30b1b0b3/55b9ced1N64b79667.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3997/306/2164361020/97773/51d501f4/58a3b30cNcdbe388d.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/32213/40/1680/65932/5c5a5a1bE71304e8f/d0bce7732fe9d382.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3280/120/6108138523/131860/6ba12343/58a3b2e3N66b9d311.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/32956/40/1638/112874/5c5a573dE535f26b9/51a6d30fe9a9c568.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/39472/33/8977/116877/5d034832E671a9170/61c4a2dd9d1b89d7.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t2425/186/830444219/105486/f43ecf92/562dc7a6N235aabb7.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/26703/29/6576/99353/5c5a565bE4cbaecbe/70cb01e199fa1bf1.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/14370/11/6584/146924/5c5a549dE733d6de2/52f592710f388e05.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/34762/11/8503/58739/5ccc3812Eaa4c538c/0effc9be56493a08.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3109/71/6276421535/271049/622cbadd/58a3b2a8N84e0bd88.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/58320/21/2377/116877/5d034856Ea9059fc6/c52195c75dec73cc.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/29842/28/6650/33221/5c5a5a7cE20e22e18/118b05efc4b9098e.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/19860/15/6554/33158/5c5a5a3dE24794222/29a443d5994bfebc.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3865/44/2122550994/320878/fca25ca8/58a3b2deN1d216660.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t16504/363/1988228871/227186/ba5ea49/5a8e1c68Nf5cecfe0.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t2503/350/810315572/290653/f95cf2a0/562f2f34N36cc849c.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3895/65/2153732188/351455/d072b05e/58a3b2a4Ne554d8de.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t4024/134/2147315804/141328/9b2f042a/58a3b2bfN51f7a9a3.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3844/76/3885747869/294664/b028b03c/58a3b2a2N49e06772.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/47371/10/15827/320878/5dce1324E6ef2e971/41bdb7084c4407b1.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/67947/21/13562/128686/5daffde2Ee2ebf4da/1443fd2625ee1572.png</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/61540/39/10730/104439/5d832915Eafb63723/bcbc5c04e62f8945.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/71871/39/10762/104439/5d832915E0d008ed6/19b244119c29afea.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/66019/12/10915/104439/5d832915Ec334206a/c2a9372284468032.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/97133/20/3992/169001/5de46fbdEf5a78491/b2e223c0ab39d52e.png</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/81288/23/13656/100447/5dafff60E611497d4/9eaf8b0f228a4309.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/71179/27/13514/306413/5dac1d18E0197c4bf/b1a698ca347f9b26.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t4009/223/2160128530/215268/a048ee97/58a3b303N94bb716a.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1747/33/273056284/50653/bb47037a/55cd974bN636b1998.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/49126/31/13885/97773/5dac19e1Ed34ba52a/e6926a142aba552e.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t2011/261/2480801782/63459/21576569/570bbb45Nc97b0499.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t925/311/326994438/116833/9ade2eed/5521f721Nb6b52aa9.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/84046/32/3114/204617/5d14ccb2E5dd09396/8b7b2c00a3596026.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/83623/1/3084/204617/5d14cc90Ee2bae89e/540486971e7c9000.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1426/170/1040400599/76187/603279fb/55b87259N911ef56b.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/39340/31/9201/166473/5d05e05fEfd5565d8/89a88e2f61e2812b.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/29488/18/9867/368859/5c8239afE6ba4f9db/07c08ec9563e2c14.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3304/39/6258806262/192779/389d5eda/58a3b32cNfffebcfe.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/92369/24/384/215268/5dac1443E00d0c02d/18e7aa0a0cc15591.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3103/292/6272232908/241348/9aee56b/58a3b30dNecbbdacc.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t4093/74/2138422664/240618/844b161/58a3b343Nf9414b44.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3136/89/6336636933/88760/34f6c36a/58a3b29eN6bee4224.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3052/184/6302142553/237287/3a4c42c8/58a3b2f8Ndb99f849.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1756/6/1238021677/199038/5592b39b/55e3efefNb7282ae6.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1675/75/846025208/165733/d5e75869/55b87346Nc10d469f.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3289/1/6333828559/89124/5aa1f86e/58a3b32cN33bd0993.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1570/357/1091937726/269970/158abf8d/55b9e43aNea375a75.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1630/135/1075868515/117970/1cda55b1/55b9c8a8N25a3b873.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t2482/237/364062419/386810/4e98e68a/5604e8d5Nc71e4133.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1852/49/1219908409/109938/dfea77be/564b078dN2063b1d9.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3055/254/6385551262/67057/c0a1b51e/58a3b321Nf9958e9d.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/50936/34/12957/134607/5d9c4016E4cd621d5/61df34ee55bae98a.png</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/74480/35/12321/134607/5d9c4016E079bd132/4061e320bb6b0dd2.png</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/76624/38/13563/90551/5daffd29E74723bd1/2cf3c79d30dd53fc.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/83219/10/15898/135988/5dd6a063E476aab1a/d206bb5eb51e361d.png</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/99925/22/557/276447/5daffd60E210def85/faac1dfe969e238b.png</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/84246/16/13484/276447/5daffd60E7dd2b8ec/da71f92843139cb6.png</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/62574/22/13981/135988/5daffd5eE387071ae/b06822630ddd3a9f.png</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t5593/51/3266139785/60010/3c4421fc/593926edN67118212.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3913/226/2171219525/140586/9c0c3aba/58a3b2f2Na840d8c5.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1591/100/1069033022/68403/141c2da8/55b99250Nbb44d40c.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t11347/65/2762080699/666499/becfe0d3/5cd77edcNf5070835.png</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/44346/17/2513/29989/5ccade9bEe0f65592/00bd3935499b6e53.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/31433/23/15228/30055/5ccaded2E6a40e286/52c7e656fffe775a.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/81924/7/4723/190268/5d2ee29aE6ca10c15/3b20a6340ea8f0fc.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/69490/32/4769/190268/5d2e6febE5860e121/c16a6d4f30deb09a.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/43354/19/6605/174363/5d034939E1835bfb3/57dd99ceeb3cc5a6.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1/59302/7/393/59643/5cd77f8bEd8f75d21/225a44d72c3b8fd1.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t1942/289/1832273732/204566/406646ff/5684efaeN12fa8ae1.jpg</t>
-  </si>
-  <si>
-    <t>https://img30.360buyimg.com/n6//jfs/t3190/187/6342936408/393147/97fe4657/58a3b2e0N4a5cae75.jpg</t>
-  </si>
-  <si>
     <t>https://img30.360buyimg.com/n6//jfs/t1/84080/31/1892/33881/5d035e45E1ddc61ff/6eec4666b4bff77a.jpg</t>
-  </si>
-  <si>
-    <t>应季水果</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,18 +572,347 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -600,12 +935,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -613,14 +1187,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -903,17 +1528,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="81.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -935,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="15" spans="1:6">
       <c r="A2">
         <v>2007216743</v>
       </c>
@@ -943,7 +1573,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>23.73</v>
@@ -952,18 +1582,18 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:6">
       <c r="A3">
         <v>2028673830</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>3.9</v>
@@ -972,38 +1602,38 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:6">
       <c r="A4">
         <v>2007258912</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>91.09999999999999</v>
+        <v>91.1</v>
       </c>
       <c r="E4">
         <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:6">
       <c r="A5">
         <v>2028680468</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>18.98</v>
@@ -1012,18 +1642,18 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:6">
       <c r="A6">
         <v>2022337191</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>0.9</v>
@@ -1032,18 +1662,18 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:6">
       <c r="A7">
         <v>2022336911</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>6.9</v>
@@ -1052,18 +1682,18 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:6">
       <c r="A8">
         <v>2023103407</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>21.2</v>
@@ -1072,18 +1702,18 @@
         <v>22.32</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:6">
       <c r="A9">
         <v>2010460786</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>12.94</v>
@@ -1092,38 +1722,38 @@
         <v>14.38</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:6">
       <c r="A10">
         <v>2022198612</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>8.07</v>
       </c>
       <c r="E10">
-        <v>8.970000000000001</v>
+        <v>8.97</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:6">
       <c r="A11">
         <v>2024515256</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>48.6</v>
@@ -1132,18 +1762,18 @@
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:6">
       <c r="A12">
         <v>2027151681</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>9.9</v>
@@ -1152,18 +1782,18 @@
         <v>19.8</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:6">
       <c r="A13">
         <v>2010381681</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>5.9</v>
@@ -1172,18 +1802,18 @@
         <v>9.9</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:6">
       <c r="A14">
         <v>2019924753</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>5.9</v>
@@ -1192,18 +1822,18 @@
         <v>35.76</v>
       </c>
       <c r="F14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:6">
       <c r="A15">
         <v>2010529232</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>14.28</v>
@@ -1212,69 +1842,69 @@
         <v>15.87</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:6">
       <c r="A16">
         <v>2019304486</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>21.12</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:6">
       <c r="A17">
         <v>2024520930</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>31.2</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:6">
       <c r="A18">
         <v>2023640234</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>16.1</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:6">
       <c r="A19">
         <v>2019924753</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>5.9</v>
@@ -1283,239 +1913,239 @@
         <v>35.76</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:6">
       <c r="A20">
         <v>2010922373</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>44.39</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:6">
       <c r="A21">
         <v>2010460700</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>20.8</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:6">
       <c r="A22">
         <v>2023640109</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>21.62</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:6">
       <c r="A23">
         <v>2019315806</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>14.4</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:6">
       <c r="A24">
         <v>2024520936</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:6">
       <c r="A25">
         <v>2022198624</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>15.8</v>
       </c>
       <c r="F25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:6">
       <c r="A26">
         <v>2022198623</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:6">
       <c r="A27">
         <v>2026871423</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:6">
       <c r="A28">
         <v>2026835479</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:6">
       <c r="A29">
         <v>2026835480</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:6">
       <c r="A30">
         <v>2026871418</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:6">
       <c r="A31">
         <v>2026871422</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:6">
       <c r="A32">
         <v>2026871419</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:6">
       <c r="A33">
         <v>2022337191</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <v>0.9</v>
@@ -1524,154 +2154,154 @@
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:6">
       <c r="A34">
         <v>2023433840</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="D34">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:6">
       <c r="A35">
         <v>2023436443</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>43.49</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:6">
       <c r="A36">
         <v>2026578339</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="D36">
         <v>27.6</v>
       </c>
       <c r="F36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:6">
       <c r="A37">
         <v>2026578337</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D37">
         <v>14.4</v>
       </c>
       <c r="F37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:6">
       <c r="A38">
         <v>2026578338</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D38">
         <v>21.6</v>
       </c>
       <c r="F38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:6">
       <c r="A39">
         <v>2028934292</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D39">
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:6">
       <c r="A40">
         <v>2023435582</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D40">
         <v>113.26</v>
       </c>
       <c r="F40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:6">
       <c r="A41">
         <v>2019746144</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="D41">
         <v>30.82</v>
       </c>
       <c r="F41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:6">
       <c r="A42">
         <v>2010460786</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D42">
         <v>12.94</v>
@@ -1680,35 +2310,35 @@
         <v>14.38</v>
       </c>
       <c r="F42" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:6">
       <c r="A43">
         <v>2011207267</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="D43">
         <v>17.48</v>
       </c>
       <c r="F43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:6">
       <c r="A44">
         <v>2010381681</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="D44">
         <v>5.9</v>
@@ -1717,955 +2347,956 @@
         <v>9.9</v>
       </c>
       <c r="F44" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:6">
       <c r="A45">
         <v>2010381685</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="D45">
         <v>9.9</v>
       </c>
       <c r="F45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:6">
       <c r="A46">
         <v>2022961985</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>8.039999999999999</v>
+        <v>8.04</v>
       </c>
       <c r="F46" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:6">
       <c r="A47">
         <v>2019775050</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D47">
         <v>16.45</v>
       </c>
       <c r="F47" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:6">
       <c r="A48">
         <v>2024571419</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="D48">
         <v>32.2</v>
       </c>
       <c r="F48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:6">
       <c r="A49">
         <v>2019304727</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="D49">
         <v>21.6</v>
       </c>
       <c r="F49" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:6">
       <c r="A50">
         <v>2024835625</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D50">
         <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:6">
       <c r="A51">
         <v>2024835613</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="D51">
         <v>47.4</v>
       </c>
       <c r="F51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:6">
       <c r="A52">
         <v>2019304685</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D52">
         <v>14.38</v>
       </c>
       <c r="F52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:6">
       <c r="A53">
         <v>2019313507</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="D53">
         <v>33.12</v>
       </c>
       <c r="F53" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:6">
       <c r="A54">
         <v>2019544877</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="D54">
         <v>14.9</v>
       </c>
       <c r="F54" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:6">
       <c r="A55">
         <v>2010381572</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="D55">
         <v>19.09</v>
       </c>
       <c r="F55" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:6">
       <c r="A56">
         <v>2019776051</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="D56">
         <v>22.77</v>
       </c>
       <c r="F56" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="1:6">
       <c r="A57">
         <v>2012607699</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:6">
       <c r="A58">
         <v>2012607500</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="D58">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:6">
       <c r="A59">
         <v>2012607366</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D59">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="1:6">
       <c r="A60">
         <v>2012607459</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="D60">
         <v>9.5</v>
       </c>
       <c r="F60" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:6">
       <c r="A61">
         <v>2012607417</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D61">
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:6">
       <c r="A62">
         <v>2024711862</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="D62">
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:6">
       <c r="A63">
         <v>2026835504</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="D63">
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="1:6">
       <c r="A64">
         <v>2026871383</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D64">
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" ht="15" spans="1:6">
       <c r="A65">
         <v>2026835500</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D65">
         <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="1:6">
       <c r="A66">
         <v>2026871421</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="D66">
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" ht="15" spans="1:6">
       <c r="A67">
         <v>2026871366</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D67">
         <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="1:6">
       <c r="A68">
         <v>2026835495</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D68">
         <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" ht="15" spans="1:6">
       <c r="A69">
         <v>2026835501</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D69">
         <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" ht="15" spans="1:6">
       <c r="A70">
         <v>2026871382</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D70">
         <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" ht="15" spans="1:6">
       <c r="A71">
         <v>2023435088</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D71">
         <v>40.66</v>
       </c>
       <c r="F71" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" ht="15" spans="1:6">
       <c r="A72">
         <v>2023435097</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D72">
         <v>81.31</v>
       </c>
       <c r="F72" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" ht="15" spans="1:6">
       <c r="A73">
         <v>2023436763</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D73">
         <v>43.54</v>
       </c>
       <c r="F73" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" ht="15" spans="1:6">
       <c r="A74">
         <v>2023437292</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D74">
         <v>44.64</v>
       </c>
       <c r="F74" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" ht="15" spans="1:6">
       <c r="A75">
         <v>2023436610</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D75">
         <v>141.72</v>
       </c>
       <c r="F75" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" ht="15" spans="1:6">
       <c r="A76">
         <v>2023436602</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D76">
         <v>70.86</v>
       </c>
       <c r="F76" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" ht="15" spans="1:6">
       <c r="A77">
         <v>2023436795</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D77">
         <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" ht="15" spans="1:6">
       <c r="A78">
         <v>2025312984</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D78">
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" ht="15" spans="1:6">
       <c r="A79">
         <v>2024515129</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D79">
         <v>90</v>
       </c>
       <c r="F79" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" ht="15" spans="1:6">
       <c r="A80">
         <v>2024515127</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D80">
         <v>46.68</v>
       </c>
       <c r="F80" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" ht="15" spans="1:6">
       <c r="A81">
         <v>2024521021</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D81">
         <v>22.89</v>
       </c>
       <c r="F81" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" ht="15" spans="1:6">
       <c r="A82">
         <v>2023828735</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D82">
         <v>61</v>
       </c>
       <c r="F82" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" ht="15" spans="1:6">
       <c r="A83">
         <v>2023635493</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D83">
         <v>27</v>
       </c>
       <c r="F83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" ht="15" spans="1:6">
       <c r="A84">
         <v>2023635497</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D84">
         <v>35.88</v>
       </c>
       <c r="F84" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" ht="15" spans="1:6">
       <c r="A85">
         <v>2019284788</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D85">
         <v>32.09</v>
       </c>
       <c r="F85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" ht="15" spans="1:6">
       <c r="A86">
         <v>2024244951</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D86">
         <v>18</v>
       </c>
       <c r="F86" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" ht="15" spans="1:6">
       <c r="A87">
         <v>2024521001</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D87">
         <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" ht="15" spans="1:6">
       <c r="A88">
         <v>2023828754</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D88">
         <v>54.96</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" ht="15" spans="1:6">
       <c r="A89">
         <v>2026835490</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D89">
         <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" ht="15" spans="1:6">
       <c r="A90">
         <v>2026871417</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D90">
         <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" ht="15" spans="1:6">
       <c r="A91">
         <v>2026835497</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D91">
         <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" ht="15" spans="1:6">
       <c r="A92">
         <v>2019304685</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D92">
         <v>14.38</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" ht="15" spans="1:6">
       <c r="A93">
         <v>2019304727</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="D93">
         <v>21.6</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" ht="15" spans="1:6">
       <c r="A94">
         <v>2024526563</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D94">
         <v>40.9</v>
       </c>
       <c r="F94" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="C31" r:id="rId30"/>
-    <hyperlink ref="C32" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="C34" r:id="rId33"/>
-    <hyperlink ref="C35" r:id="rId34"/>
-    <hyperlink ref="C36" r:id="rId35"/>
-    <hyperlink ref="C37" r:id="rId36"/>
-    <hyperlink ref="C38" r:id="rId37"/>
-    <hyperlink ref="C39" r:id="rId38"/>
-    <hyperlink ref="C40" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C44" r:id="rId43"/>
-    <hyperlink ref="C45" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46"/>
-    <hyperlink ref="C48" r:id="rId47"/>
-    <hyperlink ref="C49" r:id="rId48"/>
-    <hyperlink ref="C50" r:id="rId49"/>
-    <hyperlink ref="C51" r:id="rId50"/>
-    <hyperlink ref="C52" r:id="rId51"/>
-    <hyperlink ref="C53" r:id="rId52"/>
-    <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="C55" r:id="rId54"/>
-    <hyperlink ref="C56" r:id="rId55"/>
-    <hyperlink ref="C57" r:id="rId56"/>
-    <hyperlink ref="C58" r:id="rId57"/>
-    <hyperlink ref="C59" r:id="rId58"/>
-    <hyperlink ref="C60" r:id="rId59"/>
-    <hyperlink ref="C61" r:id="rId60"/>
-    <hyperlink ref="C62" r:id="rId61"/>
-    <hyperlink ref="C63" r:id="rId62"/>
-    <hyperlink ref="C64" r:id="rId63"/>
-    <hyperlink ref="C65" r:id="rId64"/>
-    <hyperlink ref="C66" r:id="rId65"/>
-    <hyperlink ref="C67" r:id="rId66"/>
-    <hyperlink ref="C68" r:id="rId67"/>
-    <hyperlink ref="C69" r:id="rId68"/>
-    <hyperlink ref="C70" r:id="rId69"/>
-    <hyperlink ref="C71" r:id="rId70"/>
-    <hyperlink ref="C72" r:id="rId71"/>
-    <hyperlink ref="C73" r:id="rId72"/>
-    <hyperlink ref="C74" r:id="rId73"/>
-    <hyperlink ref="C75" r:id="rId74"/>
-    <hyperlink ref="C76" r:id="rId75"/>
-    <hyperlink ref="C77" r:id="rId76"/>
-    <hyperlink ref="C78" r:id="rId77"/>
-    <hyperlink ref="C79" r:id="rId78"/>
-    <hyperlink ref="C80" r:id="rId79"/>
-    <hyperlink ref="C81" r:id="rId80"/>
-    <hyperlink ref="C82" r:id="rId81"/>
-    <hyperlink ref="C83" r:id="rId82"/>
-    <hyperlink ref="C84" r:id="rId83"/>
-    <hyperlink ref="C85" r:id="rId84"/>
-    <hyperlink ref="C86" r:id="rId85"/>
-    <hyperlink ref="C87" r:id="rId86"/>
-    <hyperlink ref="C88" r:id="rId87"/>
-    <hyperlink ref="C89" r:id="rId88"/>
-    <hyperlink ref="C90" r:id="rId89"/>
-    <hyperlink ref="C91" r:id="rId90"/>
-    <hyperlink ref="C92" r:id="rId91"/>
-    <hyperlink ref="C93" r:id="rId92"/>
-    <hyperlink ref="C94" r:id="rId93"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://img30.360buyimg.com/n6//jfs/t4792/330/1055785671/186217/5748f1a0/58ec51b1N48c3e659.jpg"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://img30.360buyimg.com/n6//jfs/t1597/349/1093942958/90486/47024758/55b9e07aNeea3717d.jpg"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://img30.360buyimg.com/n6//jfs/t2020/241/622303476/63417/d426d0fe/561dfc76N01971a53.jpg"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://img30.360buyimg.com/n6//jfs/t2896/106/1390407552/120797/b4c22f70/573d5342N39e0bd08.jpg"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://img30.360buyimg.com/n6//jfs/t1/46654/13/14250/169001/5db0086dEc41e2d9d/9686eea108d1c0d2.png"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://img30.360buyimg.com/n6//jfs/t1/61962/20/10721/241348/5d832ecdE69b832cf/17afa0e3bbe8cdea.jpg"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://img30.360buyimg.com/n6//jfs/t1/58660/36/15982/250140/5dce3abdE9620eedb/43da5e79a46ef725.png"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://img30.360buyimg.com/n6//jfs/t1/25680/27/6448/306413/5c5bf022E5d696e10/1b09142f77b6654c.jpg"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://img30.360buyimg.com/n6//jfs/t1/32066/36/1648/53129/5c5a4b23Eedb3d4b3/32f1d5a6dfff46eb.jpg"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://img30.360buyimg.com/n6//jfs/t1642/315/1058071883/74332/2b7bf29e/55b98beeNe190fa8d.jpg"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://img30.360buyimg.com/n6//jfs/t1573/45/1082551302/99072/30b1b0b3/55b9ced1N64b79667.jpg"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://img30.360buyimg.com/n6//jfs/t3997/306/2164361020/97773/51d501f4/58a3b30cNcdbe388d.jpg"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://img30.360buyimg.com/n6//jfs/t1/32213/40/1680/65932/5c5a5a1bE71304e8f/d0bce7732fe9d382.jpg"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://img30.360buyimg.com/n6//jfs/t3280/120/6108138523/131860/6ba12343/58a3b2e3N66b9d311.jpg"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://img30.360buyimg.com/n6//jfs/t1/32956/40/1638/112874/5c5a573dE535f26b9/51a6d30fe9a9c568.jpg"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://img30.360buyimg.com/n6//jfs/t1/39472/33/8977/116877/5d034832E671a9170/61c4a2dd9d1b89d7.jpg"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://img30.360buyimg.com/n6//jfs/t2425/186/830444219/105486/f43ecf92/562dc7a6N235aabb7.jpg"/>
+    <hyperlink ref="C19" r:id="rId13" display="https://img30.360buyimg.com/n6//jfs/t1/32213/40/1680/65932/5c5a5a1bE71304e8f/d0bce7732fe9d382.jpg"/>
+    <hyperlink ref="C20" r:id="rId18" display="https://img30.360buyimg.com/n6//jfs/t1/26703/29/6576/99353/5c5a565bE4cbaecbe/70cb01e199fa1bf1.jpg"/>
+    <hyperlink ref="C21" r:id="rId19" display="https://img30.360buyimg.com/n6//jfs/t1/14370/11/6584/146924/5c5a549dE733d6de2/52f592710f388e05.jpg"/>
+    <hyperlink ref="C22" r:id="rId20" display="https://img30.360buyimg.com/n6//jfs/t1/34762/11/8503/58739/5ccc3812Eaa4c538c/0effc9be56493a08.jpg"/>
+    <hyperlink ref="C23" r:id="rId21" display="https://img30.360buyimg.com/n6//jfs/t3109/71/6276421535/271049/622cbadd/58a3b2a8N84e0bd88.jpg"/>
+    <hyperlink ref="C24" r:id="rId22" display="https://img30.360buyimg.com/n6//jfs/t1/58320/21/2377/116877/5d034856Ea9059fc6/c52195c75dec73cc.jpg"/>
+    <hyperlink ref="C25" r:id="rId23" display="https://img30.360buyimg.com/n6//jfs/t1/29842/28/6650/33221/5c5a5a7cE20e22e18/118b05efc4b9098e.jpg"/>
+    <hyperlink ref="C26" r:id="rId24" display="https://img30.360buyimg.com/n6//jfs/t1/19860/15/6554/33158/5c5a5a3dE24794222/29a443d5994bfebc.jpg"/>
+    <hyperlink ref="C27" r:id="rId25" display="https://img30.360buyimg.com/n6//jfs/t3865/44/2122550994/320878/fca25ca8/58a3b2deN1d216660.jpg"/>
+    <hyperlink ref="C28" r:id="rId26" display="https://img30.360buyimg.com/n6//jfs/t16504/363/1988228871/227186/ba5ea49/5a8e1c68Nf5cecfe0.jpg"/>
+    <hyperlink ref="C29" r:id="rId27" display="https://img30.360buyimg.com/n6//jfs/t2503/350/810315572/290653/f95cf2a0/562f2f34N36cc849c.jpg"/>
+    <hyperlink ref="C30" r:id="rId28" display="https://img30.360buyimg.com/n6//jfs/t3895/65/2153732188/351455/d072b05e/58a3b2a4Ne554d8de.jpg"/>
+    <hyperlink ref="C31" r:id="rId29" display="https://img30.360buyimg.com/n6//jfs/t4024/134/2147315804/141328/9b2f042a/58a3b2bfN51f7a9a3.jpg"/>
+    <hyperlink ref="C32" r:id="rId30" display="https://img30.360buyimg.com/n6//jfs/t3844/76/3885747869/294664/b028b03c/58a3b2a2N49e06772.jpg"/>
+    <hyperlink ref="C33" r:id="rId5" display="https://img30.360buyimg.com/n6//jfs/t1/46654/13/14250/169001/5db0086dEc41e2d9d/9686eea108d1c0d2.png"/>
+    <hyperlink ref="C34" r:id="rId31" display="https://img30.360buyimg.com/n6//jfs/t1/47371/10/15827/320878/5dce1324E6ef2e971/41bdb7084c4407b1.jpg"/>
+    <hyperlink ref="C35" r:id="rId32" display="https://img30.360buyimg.com/n6//jfs/t1/67947/21/13562/128686/5daffde2Ee2ebf4da/1443fd2625ee1572.png"/>
+    <hyperlink ref="C36" r:id="rId33" display="https://img30.360buyimg.com/n6//jfs/t1/61540/39/10730/104439/5d832915Eafb63723/bcbc5c04e62f8945.jpg"/>
+    <hyperlink ref="C37" r:id="rId34" display="https://img30.360buyimg.com/n6//jfs/t1/71871/39/10762/104439/5d832915E0d008ed6/19b244119c29afea.jpg"/>
+    <hyperlink ref="C38" r:id="rId35" display="https://img30.360buyimg.com/n6//jfs/t1/66019/12/10915/104439/5d832915Ec334206a/c2a9372284468032.jpg"/>
+    <hyperlink ref="C39" r:id="rId36" display="https://img30.360buyimg.com/n6//jfs/t1/97133/20/3992/169001/5de46fbdEf5a78491/b2e223c0ab39d52e.png"/>
+    <hyperlink ref="C40" r:id="rId37" display="https://img30.360buyimg.com/n6//jfs/t1/81288/23/13656/100447/5dafff60E611497d4/9eaf8b0f228a4309.jpg"/>
+    <hyperlink ref="C41" r:id="rId38" display="https://img30.360buyimg.com/n6//jfs/t1/71179/27/13514/306413/5dac1d18E0197c4bf/b1a698ca347f9b26.jpg"/>
+    <hyperlink ref="C42" r:id="rId8" display="https://img30.360buyimg.com/n6//jfs/t1/25680/27/6448/306413/5c5bf022E5d696e10/1b09142f77b6654c.jpg"/>
+    <hyperlink ref="C43" r:id="rId39" display="https://img30.360buyimg.com/n6//jfs/t4009/223/2160128530/215268/a048ee97/58a3b303N94bb716a.jpg"/>
+    <hyperlink ref="C44" r:id="rId12" display="https://img30.360buyimg.com/n6//jfs/t3997/306/2164361020/97773/51d501f4/58a3b30cNcdbe388d.jpg"/>
+    <hyperlink ref="C45" r:id="rId40" display="https://img30.360buyimg.com/n6//jfs/t1747/33/273056284/50653/bb47037a/55cd974bN636b1998.jpg"/>
+    <hyperlink ref="C46" r:id="rId12" display="https://img30.360buyimg.com/n6//jfs/t3997/306/2164361020/97773/51d501f4/58a3b30cNcdbe388d.jpg"/>
+    <hyperlink ref="C47" r:id="rId41" display="https://img30.360buyimg.com/n6//jfs/t1/49126/31/13885/97773/5dac19e1Ed34ba52a/e6926a142aba552e.jpg"/>
+    <hyperlink ref="C48" r:id="rId42" display="https://img30.360buyimg.com/n6//jfs/t2011/261/2480801782/63459/21576569/570bbb45Nc97b0499.jpg"/>
+    <hyperlink ref="C49" r:id="rId43" display="https://img30.360buyimg.com/n6//jfs/t925/311/326994438/116833/9ade2eed/5521f721Nb6b52aa9.jpg"/>
+    <hyperlink ref="C50" r:id="rId44" display="https://img30.360buyimg.com/n6//jfs/t1/84046/32/3114/204617/5d14ccb2E5dd09396/8b7b2c00a3596026.jpg"/>
+    <hyperlink ref="C51" r:id="rId45" display="https://img30.360buyimg.com/n6//jfs/t1/83623/1/3084/204617/5d14cc90Ee2bae89e/540486971e7c9000.jpg"/>
+    <hyperlink ref="C52" r:id="rId46" display="https://img30.360buyimg.com/n6//jfs/t1426/170/1040400599/76187/603279fb/55b87259N911ef56b.jpg"/>
+    <hyperlink ref="C53" r:id="rId47" display="https://img30.360buyimg.com/n6//jfs/t1/39340/31/9201/166473/5d05e05fEfd5565d8/89a88e2f61e2812b.jpg"/>
+    <hyperlink ref="C54" r:id="rId48" display="https://img30.360buyimg.com/n6//jfs/t1/29488/18/9867/368859/5c8239afE6ba4f9db/07c08ec9563e2c14.jpg"/>
+    <hyperlink ref="C55" r:id="rId49" display="https://img30.360buyimg.com/n6//jfs/t3304/39/6258806262/192779/389d5eda/58a3b32cNfffebcfe.jpg"/>
+    <hyperlink ref="C56" r:id="rId50" display="https://img30.360buyimg.com/n6//jfs/t1/92369/24/384/215268/5dac1443E00d0c02d/18e7aa0a0cc15591.jpg"/>
+    <hyperlink ref="C57" r:id="rId51" display="https://img30.360buyimg.com/n6//jfs/t3103/292/6272232908/241348/9aee56b/58a3b30dNecbbdacc.jpg"/>
+    <hyperlink ref="C58" r:id="rId52" display="https://img30.360buyimg.com/n6//jfs/t4093/74/2138422664/240618/844b161/58a3b343Nf9414b44.jpg"/>
+    <hyperlink ref="C59" r:id="rId53" display="https://img30.360buyimg.com/n6//jfs/t3136/89/6336636933/88760/34f6c36a/58a3b29eN6bee4224.jpg"/>
+    <hyperlink ref="C60" r:id="rId39" display="https://img30.360buyimg.com/n6//jfs/t4009/223/2160128530/215268/a048ee97/58a3b303N94bb716a.jpg"/>
+    <hyperlink ref="C61" r:id="rId54" display="https://img30.360buyimg.com/n6//jfs/t3052/184/6302142553/237287/3a4c42c8/58a3b2f8Ndb99f849.jpg"/>
+    <hyperlink ref="C62" r:id="rId55" display="https://img30.360buyimg.com/n6//jfs/t1756/6/1238021677/199038/5592b39b/55e3efefNb7282ae6.jpg"/>
+    <hyperlink ref="C63" r:id="rId56" display="https://img30.360buyimg.com/n6//jfs/t1675/75/846025208/165733/d5e75869/55b87346Nc10d469f.jpg"/>
+    <hyperlink ref="C64" r:id="rId57" display="https://img30.360buyimg.com/n6//jfs/t3289/1/6333828559/89124/5aa1f86e/58a3b32cN33bd0993.jpg"/>
+    <hyperlink ref="C65" r:id="rId58" display="https://img30.360buyimg.com/n6//jfs/t1570/357/1091937726/269970/158abf8d/55b9e43aNea375a75.jpg"/>
+    <hyperlink ref="C66" r:id="rId51" display="https://img30.360buyimg.com/n6//jfs/t3103/292/6272232908/241348/9aee56b/58a3b30dNecbbdacc.jpg"/>
+    <hyperlink ref="C67" r:id="rId59" display="https://img30.360buyimg.com/n6//jfs/t1630/135/1075868515/117970/1cda55b1/55b9c8a8N25a3b873.jpg"/>
+    <hyperlink ref="C68" r:id="rId60" display="https://img30.360buyimg.com/n6//jfs/t2482/237/364062419/386810/4e98e68a/5604e8d5Nc71e4133.jpg"/>
+    <hyperlink ref="C69" r:id="rId61" display="https://img30.360buyimg.com/n6//jfs/t1852/49/1219908409/109938/dfea77be/564b078dN2063b1d9.jpg"/>
+    <hyperlink ref="C70" r:id="rId62" display="https://img30.360buyimg.com/n6//jfs/t3055/254/6385551262/67057/c0a1b51e/58a3b321Nf9958e9d.jpg"/>
+    <hyperlink ref="C71" r:id="rId63" display="https://img30.360buyimg.com/n6//jfs/t1/50936/34/12957/134607/5d9c4016E4cd621d5/61df34ee55bae98a.png"/>
+    <hyperlink ref="C72" r:id="rId64" display="https://img30.360buyimg.com/n6//jfs/t1/74480/35/12321/134607/5d9c4016E079bd132/4061e320bb6b0dd2.png"/>
+    <hyperlink ref="C73" r:id="rId65" display="https://img30.360buyimg.com/n6//jfs/t1/76624/38/13563/90551/5daffd29E74723bd1/2cf3c79d30dd53fc.jpg"/>
+    <hyperlink ref="C74" r:id="rId66" display="https://img30.360buyimg.com/n6//jfs/t1/83219/10/15898/135988/5dd6a063E476aab1a/d206bb5eb51e361d.png"/>
+    <hyperlink ref="C75" r:id="rId67" display="https://img30.360buyimg.com/n6//jfs/t1/99925/22/557/276447/5daffd60E210def85/faac1dfe969e238b.png"/>
+    <hyperlink ref="C76" r:id="rId68" display="https://img30.360buyimg.com/n6//jfs/t1/84246/16/13484/276447/5daffd60E7dd2b8ec/da71f92843139cb6.png"/>
+    <hyperlink ref="C77" r:id="rId69" display="https://img30.360buyimg.com/n6//jfs/t1/62574/22/13981/135988/5daffd5eE387071ae/b06822630ddd3a9f.png"/>
+    <hyperlink ref="C78" r:id="rId70" display="https://img30.360buyimg.com/n6//jfs/t5593/51/3266139785/60010/3c4421fc/593926edN67118212.jpg"/>
+    <hyperlink ref="C79" r:id="rId71" display="https://img30.360buyimg.com/n6//jfs/t3913/226/2171219525/140586/9c0c3aba/58a3b2f2Na840d8c5.jpg"/>
+    <hyperlink ref="C80" r:id="rId71" display="https://img30.360buyimg.com/n6//jfs/t3913/226/2171219525/140586/9c0c3aba/58a3b2f2Na840d8c5.jpg"/>
+    <hyperlink ref="C81" r:id="rId72" display="https://img30.360buyimg.com/n6//jfs/t1591/100/1069033022/68403/141c2da8/55b99250Nbb44d40c.jpg"/>
+    <hyperlink ref="C82" r:id="rId73" display="https://img30.360buyimg.com/n6//jfs/t11347/65/2762080699/666499/becfe0d3/5cd77edcNf5070835.png"/>
+    <hyperlink ref="C83" r:id="rId74" display="https://img30.360buyimg.com/n6//jfs/t1/44346/17/2513/29989/5ccade9bEe0f65592/00bd3935499b6e53.jpg"/>
+    <hyperlink ref="C84" r:id="rId75" display="https://img30.360buyimg.com/n6//jfs/t1/31433/23/15228/30055/5ccaded2E6a40e286/52c7e656fffe775a.jpg"/>
+    <hyperlink ref="C85" r:id="rId76" display="https://img30.360buyimg.com/n6//jfs/t1/81924/7/4723/190268/5d2ee29aE6ca10c15/3b20a6340ea8f0fc.jpg"/>
+    <hyperlink ref="C86" r:id="rId77" display="https://img30.360buyimg.com/n6//jfs/t1/69490/32/4769/190268/5d2e6febE5860e121/c16a6d4f30deb09a.jpg"/>
+    <hyperlink ref="C87" r:id="rId78" display="https://img30.360buyimg.com/n6//jfs/t1/43354/19/6605/174363/5d034939E1835bfb3/57dd99ceeb3cc5a6.jpg"/>
+    <hyperlink ref="C88" r:id="rId79" display="https://img30.360buyimg.com/n6//jfs/t1/59302/7/393/59643/5cd77f8bEd8f75d21/225a44d72c3b8fd1.jpg"/>
+    <hyperlink ref="C89" r:id="rId80" display="https://img30.360buyimg.com/n6//jfs/t1942/289/1832273732/204566/406646ff/5684efaeN12fa8ae1.jpg"/>
+    <hyperlink ref="C90" r:id="rId81" display="https://img30.360buyimg.com/n6//jfs/t3190/187/6342936408/393147/97fe4657/58a3b2e0N4a5cae75.jpg"/>
+    <hyperlink ref="C91" r:id="rId72" display="https://img30.360buyimg.com/n6//jfs/t1591/100/1069033022/68403/141c2da8/55b99250Nbb44d40c.jpg"/>
+    <hyperlink ref="C92" r:id="rId46" display="https://img30.360buyimg.com/n6//jfs/t1426/170/1040400599/76187/603279fb/55b87259N911ef56b.jpg"/>
+    <hyperlink ref="C93" r:id="rId43" display="https://img30.360buyimg.com/n6//jfs/t925/311/326994438/116833/9ade2eed/5521f721Nb6b52aa9.jpg"/>
+    <hyperlink ref="C94" r:id="rId82" display="https://img30.360buyimg.com/n6//jfs/t1/84080/31/1892/33881/5d035e45E1ddc61ff/6eec4666b4bff77a.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>